--- a/Experiments Tracking.xlsx
+++ b/Experiments Tracking.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Experiment Name</t>
   </si>
@@ -156,13 +156,19 @@
   <si>
     <t xml:space="preserve">{'colsample_bylevel': 0.7537380893709749, 'colsample_bynode': 0.4391008876355313, 'colsample_bytree': 0.4092035599565919, 'eta': 0.004317389102544142, 'gamma': 0.00944209883650535, 'learning_rate': 0.00040205201703569384, 'max_depth': 13.0, 'min_child_weight': 2.0, 'n_estimators': 1.0, 'subsample': 0.32575588628910074}
 </t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.5065110295903711, 'colsample_bynode': 0.7187622259343914, 'colsample_bytree': 0.7851559497428455, 'eta': 0.371528514013678, 'gamma': 0.8581615566471957, 'learning_rate': 0.6566902743740425, 'max_depth': 14.0, 'min_child_weight': 6.0, 'n_estimators': 680.0, 'subsample': 0.740963146241195}</t>
+  </si>
+  <si>
+    <t>best loss: 1.130770167</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,6 +213,11 @@
       <sz val="11"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--colab-code-font-family)"/>
     </font>
   </fonts>
   <fills count="7">
@@ -331,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,33 +398,40 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,11 +649,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -645,7 +663,7 @@
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,20 +680,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -685,11 +703,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="63.75">
+      <c r="A4" s="29"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
@@ -697,11 +715,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="76.5">
+      <c r="A5" s="29"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
@@ -709,11 +727,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="63" customHeight="1">
+      <c r="A6" s="29"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
@@ -721,11 +739,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A7" s="29"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
@@ -733,13 +751,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="12" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:6" s="12" customFormat="1" ht="76.5">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -749,11 +767,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="66" customHeight="1">
+      <c r="A9" s="24"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="18" t="s">
         <v>25</v>
       </c>
@@ -761,11 +779,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:6" s="12" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A10" s="24"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="18" t="s">
         <v>16</v>
       </c>
@@ -773,11 +791,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:6" s="12" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A11" s="24"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="18" t="s">
         <v>30</v>
       </c>
@@ -785,11 +803,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:6" s="12" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A12" s="24"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="18" t="s">
         <v>29</v>
       </c>
@@ -797,13 +815,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:6" s="12" customFormat="1" ht="76.5">
+      <c r="A13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -813,11 +831,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A14" s="25"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
@@ -825,11 +843,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A15" s="25"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="20" t="s">
         <v>33</v>
       </c>
@@ -837,11 +855,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="72" customHeight="1">
+      <c r="A16" s="25"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="20" t="s">
         <v>36</v>
       </c>
@@ -849,11 +867,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:6" ht="63.75">
+      <c r="A17" s="25"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="20" t="s">
         <v>38</v>
       </c>
@@ -861,11 +879,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:6" ht="63.75">
+      <c r="A18" s="25"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="20" t="s">
         <v>40</v>
       </c>
@@ -873,49 +891,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51">
+      <c r="A19" s="32"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="E27" s="2"/>
     </row>
   </sheetData>
@@ -940,12 +963,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="5" max="5" width="106.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="5:39" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:39" ht="52.9" customHeight="1">
       <c r="E24" s="10" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1007,7 @@
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
     </row>
-    <row r="32" spans="5:39" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:39" ht="51">
       <c r="E32" s="11" t="s">
         <v>10</v>
       </c>
